--- a/otziv.xlsx
+++ b/otziv.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="189">
   <si>
     <t>id</t>
   </si>
@@ -1630,6 +1630,39 @@
   </si>
   <si>
     <t>fio</t>
+  </si>
+  <si>
+    <t>ссылка</t>
+  </si>
+  <si>
+    <t>коррекция</t>
+  </si>
+  <si>
+    <t>проверка</t>
+  </si>
+  <si>
+    <t>одобрено</t>
+  </si>
+  <si>
+    <t>опублик</t>
+  </si>
+  <si>
+    <t>счет</t>
+  </si>
+  <si>
+    <t>напом</t>
+  </si>
+  <si>
+    <t>оплатили</t>
+  </si>
+  <si>
+    <t>в бан</t>
+  </si>
+  <si>
+    <t>текст опл</t>
+  </si>
+  <si>
+    <t>2гис</t>
   </si>
 </sst>
 </file>
@@ -2040,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BD47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AZ37" sqref="AZ37"/>
+    <sheetView tabSelected="1" topLeftCell="AH4" workbookViewId="0">
+      <selection activeCell="AS42" sqref="AS42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2799,7 +2832,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:44">
       <c r="A33">
         <v>7</v>
       </c>
@@ -2816,7 +2849,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:44">
       <c r="A34">
         <v>8</v>
       </c>
@@ -2827,7 +2860,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:44">
       <c r="A35">
         <v>9</v>
       </c>
@@ -2838,7 +2871,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:44">
       <c r="A36">
         <v>10</v>
       </c>
@@ -2849,7 +2882,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:44">
       <c r="A37">
         <v>11</v>
       </c>
@@ -2863,7 +2896,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:44">
       <c r="A38">
         <v>12</v>
       </c>
@@ -2879,8 +2912,20 @@
       <c r="AK38" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="39" spans="1:38">
+      <c r="AO38" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44">
       <c r="S39" s="5" t="s">
         <v>89</v>
       </c>
@@ -2890,8 +2935,20 @@
       <c r="AK39" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="40" spans="1:38">
+      <c r="AO39" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44">
       <c r="S40" s="6" t="s">
         <v>103</v>
       </c>
@@ -2902,7 +2959,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:44">
       <c r="S41" s="6" t="s">
         <v>95</v>
       </c>
@@ -2910,56 +2967,92 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:44">
       <c r="S42" s="5" t="s">
         <v>96</v>
       </c>
       <c r="AI42" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:38">
+      <c r="AO42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>178</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44">
       <c r="S43" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="44" spans="1:38">
+      <c r="AO43" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44">
       <c r="S44" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="45" spans="1:38">
+      <c r="AO44" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44">
       <c r="S45" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:44">
       <c r="S46" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:44">
       <c r="S47" s="5" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="BA8:BD8"/>
+    <mergeCell ref="BA10:BB10"/>
+    <mergeCell ref="BA12:BD12"/>
+    <mergeCell ref="BA14:BB14"/>
+    <mergeCell ref="BC14:BD14"/>
+    <mergeCell ref="AV8:AY8"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AV12:AY12"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AX14:AY14"/>
     <mergeCell ref="AQ8:AT8"/>
     <mergeCell ref="AQ12:AT12"/>
     <mergeCell ref="AQ14:AR14"/>
     <mergeCell ref="AS14:AT14"/>
     <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AV8:AY8"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AV12:AY12"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AX14:AY14"/>
-    <mergeCell ref="BA8:BD8"/>
-    <mergeCell ref="BA10:BB10"/>
-    <mergeCell ref="BA12:BD12"/>
-    <mergeCell ref="BA14:BB14"/>
-    <mergeCell ref="BC14:BD14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/otziv.xlsx
+++ b/otziv.xlsx
@@ -1656,13 +1656,13 @@
     <t>оплатили</t>
   </si>
   <si>
-    <t>в бан</t>
-  </si>
-  <si>
     <t>текст опл</t>
   </si>
   <si>
     <t>2гис</t>
+  </si>
+  <si>
+    <t>не опл</t>
   </si>
 </sst>
 </file>
@@ -2074,7 +2074,7 @@
   <dimension ref="A6:BD47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH4" workbookViewId="0">
-      <selection activeCell="AS42" sqref="AS42"/>
+      <selection activeCell="AP44" sqref="AP44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2981,49 +2981,49 @@
         <v>178</v>
       </c>
       <c r="AQ42" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR42" t="s">
         <v>187</v>
-      </c>
-      <c r="AR42" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:44">
       <c r="S43" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AO43" t="s">
-        <v>180</v>
-      </c>
-      <c r="AP43" t="s">
-        <v>179</v>
-      </c>
-      <c r="AQ43" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR43" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="44" spans="1:44">
       <c r="S44" s="6" t="s">
         <v>105</v>
       </c>
       <c r="AO44" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AP44" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AQ44" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AR44" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:44">
       <c r="S45" s="4" t="s">
         <v>106</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:44">

--- a/otziv.xlsx
+++ b/otziv.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="197">
   <si>
     <t>id</t>
   </si>
@@ -1663,6 +1663,30 @@
   </si>
   <si>
     <t>не опл</t>
+  </si>
+  <si>
+    <t>если лида добавляет оператор, то сделать, чтобы он возвращался на туже страницу с уведомлением.</t>
+  </si>
+  <si>
+    <t>Убрать стоимость заказа у работника</t>
+  </si>
+  <si>
+    <t>Добавить выбор тематики продукта</t>
+  </si>
+  <si>
+    <t>Сделать подсветку кнопок при определенном статусе</t>
+  </si>
+  <si>
+    <t>Сделать страницу сохранить все и отправить на проверку</t>
+  </si>
+  <si>
+    <t>При нажатии "опубликовано", чтобы у работника страница оставалась на месте</t>
+  </si>
+  <si>
+    <t>Сделать указатель прошедшего времени после смены статуса для компании</t>
+  </si>
+  <si>
+    <t>После нового заказа переходит на страницу все</t>
   </si>
 </sst>
 </file>
@@ -2071,10 +2095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:BD47"/>
+  <dimension ref="A6:BD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH4" workbookViewId="0">
-      <selection activeCell="AP44" sqref="AP44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3034,6 +3058,46 @@
     <row r="47" spans="1:44">
       <c r="S47" s="5" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/otziv.xlsx
+++ b/otziv.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="200">
   <si>
     <t>id</t>
   </si>
@@ -1687,6 +1687,15 @@
   </si>
   <si>
     <t>После нового заказа переходит на страницу все</t>
+  </si>
+  <si>
+    <t>Спрятать верхнее меню</t>
+  </si>
+  <si>
+    <t>написать текста</t>
+  </si>
+  <si>
+    <t>N+1</t>
   </si>
 </sst>
 </file>
@@ -1768,12 +1777,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1788,7 +1803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1815,6 +1830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2095,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:BD61"/>
+  <dimension ref="A6:BD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3061,12 +3077,12 @@
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" t="s">
+      <c r="B54" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" t="s">
+      <c r="B55" s="10" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3086,7 +3102,7 @@
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" t="s">
+      <c r="B59" s="10" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3096,8 +3112,23 @@
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" t="s">
+      <c r="B61" s="10" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/otziv.xlsx
+++ b/otziv.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="345">
   <si>
     <t>id</t>
   </si>
@@ -1696,6 +1697,441 @@
   </si>
   <si>
     <t>N+1</t>
+  </si>
+  <si>
+    <t>автохимия</t>
+  </si>
+  <si>
+    <t>ТО и диагностика</t>
+  </si>
+  <si>
+    <t>Автосервис</t>
+  </si>
+  <si>
+    <t>кузовные работы</t>
+  </si>
+  <si>
+    <t>покраска</t>
+  </si>
+  <si>
+    <t>электрика</t>
+  </si>
+  <si>
+    <t>полировка</t>
+  </si>
+  <si>
+    <t>двигатели</t>
+  </si>
+  <si>
+    <t>подвеска</t>
+  </si>
+  <si>
+    <t>запчасти</t>
+  </si>
+  <si>
+    <t>авторазборка</t>
+  </si>
+  <si>
+    <t>Бухгалтерия</t>
+  </si>
+  <si>
+    <t>автостекло</t>
+  </si>
+  <si>
+    <t>Автошкола</t>
+  </si>
+  <si>
+    <t xml:space="preserve">категория </t>
+  </si>
+  <si>
+    <t>Бани, сануы</t>
+  </si>
+  <si>
+    <t>баня</t>
+  </si>
+  <si>
+    <t>сауна</t>
+  </si>
+  <si>
+    <t>хамам</t>
+  </si>
+  <si>
+    <t>финская</t>
+  </si>
+  <si>
+    <t>Барбершоп</t>
+  </si>
+  <si>
+    <t>Бетон</t>
+  </si>
+  <si>
+    <t>барбешоп</t>
+  </si>
+  <si>
+    <t>бетон</t>
+  </si>
+  <si>
+    <t>бухгалтерия</t>
+  </si>
+  <si>
+    <t>Больница</t>
+  </si>
+  <si>
+    <t>автомасло</t>
+  </si>
+  <si>
+    <t>детейлинг</t>
+  </si>
+  <si>
+    <t>автозвук</t>
+  </si>
+  <si>
+    <t>чип тюнинг</t>
+  </si>
+  <si>
+    <t>Ветеринар</t>
+  </si>
+  <si>
+    <t>Велосипеды</t>
+  </si>
+  <si>
+    <t>ремонт</t>
+  </si>
+  <si>
+    <t>прокат</t>
+  </si>
+  <si>
+    <t>ветеринар</t>
+  </si>
+  <si>
+    <t>Вскрытие замков</t>
+  </si>
+  <si>
+    <t>Ворота</t>
+  </si>
+  <si>
+    <t>Визажист</t>
+  </si>
+  <si>
+    <t>гаражные</t>
+  </si>
+  <si>
+    <t>заборные</t>
+  </si>
+  <si>
+    <t>Гостиницы</t>
+  </si>
+  <si>
+    <t>гостиница</t>
+  </si>
+  <si>
+    <t>отель</t>
+  </si>
+  <si>
+    <t>гостевой дом</t>
+  </si>
+  <si>
+    <t>вилла</t>
+  </si>
+  <si>
+    <t>Глэмпинг</t>
+  </si>
+  <si>
+    <t>а</t>
+  </si>
+  <si>
+    <t>б</t>
+  </si>
+  <si>
+    <t>в</t>
+  </si>
+  <si>
+    <t>г</t>
+  </si>
+  <si>
+    <t>турбаза</t>
+  </si>
+  <si>
+    <t>хостел</t>
+  </si>
+  <si>
+    <t>Автостраховка</t>
+  </si>
+  <si>
+    <t>осаго</t>
+  </si>
+  <si>
+    <t>катализаторы</t>
+  </si>
+  <si>
+    <t>Дет сад</t>
+  </si>
+  <si>
+    <t>двери</t>
+  </si>
+  <si>
+    <t>Дезинфекция</t>
+  </si>
+  <si>
+    <t>Двери</t>
+  </si>
+  <si>
+    <t>д</t>
+  </si>
+  <si>
+    <t>е</t>
+  </si>
+  <si>
+    <t>ж</t>
+  </si>
+  <si>
+    <t>Одежда</t>
+  </si>
+  <si>
+    <t>Обувь</t>
+  </si>
+  <si>
+    <t>з</t>
+  </si>
+  <si>
+    <t>и</t>
+  </si>
+  <si>
+    <t>Займы</t>
+  </si>
+  <si>
+    <t>микрозайм</t>
+  </si>
+  <si>
+    <t>игровая</t>
+  </si>
+  <si>
+    <t>батут</t>
+  </si>
+  <si>
+    <t>лазертаг</t>
+  </si>
+  <si>
+    <t>нерф</t>
+  </si>
+  <si>
+    <t>квест</t>
+  </si>
+  <si>
+    <t>vr</t>
+  </si>
+  <si>
+    <t>аниматоры</t>
+  </si>
+  <si>
+    <t>Дети</t>
+  </si>
+  <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>л</t>
+  </si>
+  <si>
+    <t>Клининг</t>
+  </si>
+  <si>
+    <t>Красота</t>
+  </si>
+  <si>
+    <t>визажист</t>
+  </si>
+  <si>
+    <t>ресницы</t>
+  </si>
+  <si>
+    <t>ногти</t>
+  </si>
+  <si>
+    <t>брови</t>
+  </si>
+  <si>
+    <t>эпиляция</t>
+  </si>
+  <si>
+    <t>парик</t>
+  </si>
+  <si>
+    <t>лазер</t>
+  </si>
+  <si>
+    <t>Ломбард</t>
+  </si>
+  <si>
+    <t>уборка</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>Мебель</t>
+  </si>
+  <si>
+    <t>кухни</t>
+  </si>
+  <si>
+    <t>полы</t>
+  </si>
+  <si>
+    <t>диваны</t>
+  </si>
+  <si>
+    <t>шкафы</t>
+  </si>
+  <si>
+    <t>потолки</t>
+  </si>
+  <si>
+    <t>Медиа</t>
+  </si>
+  <si>
+    <t>краска</t>
+  </si>
+  <si>
+    <t>мойка</t>
+  </si>
+  <si>
+    <t>матрац</t>
+  </si>
+  <si>
+    <t>мягкая</t>
+  </si>
+  <si>
+    <t>Массаж</t>
+  </si>
+  <si>
+    <t>шиномонтаж</t>
+  </si>
+  <si>
+    <t>н</t>
+  </si>
+  <si>
+    <t>детская</t>
+  </si>
+  <si>
+    <t>наращивание</t>
+  </si>
+  <si>
+    <t>о</t>
+  </si>
+  <si>
+    <t>женская</t>
+  </si>
+  <si>
+    <t>мужская</t>
+  </si>
+  <si>
+    <t>общая</t>
+  </si>
+  <si>
+    <t>Медицина</t>
+  </si>
+  <si>
+    <t>отбеливание</t>
+  </si>
+  <si>
+    <t>окна</t>
+  </si>
+  <si>
+    <t>п</t>
+  </si>
+  <si>
+    <t>Профессии</t>
+  </si>
+  <si>
+    <t>продлденка</t>
+  </si>
+  <si>
+    <t>школа</t>
+  </si>
+  <si>
+    <t>перманент</t>
+  </si>
+  <si>
+    <t>плавание</t>
+  </si>
+  <si>
+    <t>секции</t>
+  </si>
+  <si>
+    <t>Новостройки</t>
+  </si>
+  <si>
+    <t>приемка</t>
+  </si>
+  <si>
+    <t>продажа</t>
+  </si>
+  <si>
+    <t>Рестораны</t>
+  </si>
+  <si>
+    <t>кафе</t>
+  </si>
+  <si>
+    <t>пиццерия</t>
+  </si>
+  <si>
+    <t>р</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>Ремонт компьют</t>
+  </si>
+  <si>
+    <t>реклама</t>
+  </si>
+  <si>
+    <t>агенство</t>
+  </si>
+  <si>
+    <t>аудио</t>
+  </si>
+  <si>
+    <t>газета</t>
+  </si>
+  <si>
+    <t>Риелтор</t>
+  </si>
+  <si>
+    <t>Ремонт дома</t>
+  </si>
+  <si>
+    <t>Ремонт сервисы</t>
+  </si>
+  <si>
+    <t>ноутбуки</t>
+  </si>
+  <si>
+    <t>телефоны</t>
+  </si>
+  <si>
+    <t>Стройка</t>
+  </si>
+  <si>
+    <t>психология</t>
+  </si>
+  <si>
+    <t>т</t>
+  </si>
+  <si>
+    <t>Путешествия</t>
+  </si>
+  <si>
+    <t>турагенства</t>
+  </si>
+  <si>
+    <t>у</t>
+  </si>
+  <si>
+    <t>ф</t>
   </si>
 </sst>
 </file>
@@ -1827,10 +2263,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2113,7 +2549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
@@ -2260,24 +2696,24 @@
       <c r="AK8" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AQ8" s="9" t="s">
+      <c r="AQ8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="9"/>
-      <c r="AT8" s="9"/>
-      <c r="AV8" s="9" t="s">
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AV8" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="AW8" s="9"/>
-      <c r="AX8" s="9"/>
-      <c r="AY8" s="9"/>
-      <c r="BA8" s="9" t="s">
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
+      <c r="BA8" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="BB8" s="9"/>
-      <c r="BC8" s="9"/>
-      <c r="BD8" s="9"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="10"/>
     </row>
     <row r="9" spans="2:56">
       <c r="D9" t="s">
@@ -2354,30 +2790,30 @@
       <c r="AJ10" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="AQ10" s="9" t="s">
+      <c r="AQ10" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="AR10" s="9"/>
+      <c r="AR10" s="10"/>
       <c r="AS10" t="s">
         <v>146</v>
       </c>
       <c r="AT10" t="s">
         <v>144</v>
       </c>
-      <c r="AV10" s="9" t="s">
+      <c r="AV10" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="AW10" s="9"/>
+      <c r="AW10" s="10"/>
       <c r="AX10" t="s">
         <v>146</v>
       </c>
       <c r="AY10" t="s">
         <v>144</v>
       </c>
-      <c r="BA10" s="9" t="s">
+      <c r="BA10" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="BB10" s="9"/>
+      <c r="BB10" s="10"/>
       <c r="BC10" t="s">
         <v>146</v>
       </c>
@@ -2466,24 +2902,24 @@
       <c r="AJ12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AQ12" s="9" t="s">
+      <c r="AQ12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AR12" s="9"/>
-      <c r="AS12" s="9"/>
-      <c r="AT12" s="9"/>
-      <c r="AV12" s="9" t="s">
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AV12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AW12" s="9"/>
-      <c r="AX12" s="9"/>
-      <c r="AY12" s="9"/>
-      <c r="BA12" s="9" t="s">
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10"/>
+      <c r="BA12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="BB12" s="9"/>
-      <c r="BC12" s="9"/>
-      <c r="BD12" s="9"/>
+      <c r="BB12" s="10"/>
+      <c r="BC12" s="10"/>
+      <c r="BD12" s="10"/>
     </row>
     <row r="13" spans="2:56">
       <c r="D13" t="s">
@@ -2554,30 +2990,30 @@
       <c r="AJ14" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AQ14" s="9" t="s">
+      <c r="AQ14" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9" t="s">
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AT14" s="9"/>
-      <c r="AV14" s="9" t="s">
+      <c r="AT14" s="10"/>
+      <c r="AV14" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="AW14" s="9"/>
-      <c r="AX14" s="9" t="s">
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AY14" s="9"/>
-      <c r="BA14" s="9" t="s">
+      <c r="AY14" s="10"/>
+      <c r="BA14" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="BB14" s="9"/>
-      <c r="BC14" s="9" t="s">
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BD14" s="9"/>
+      <c r="BD14" s="10"/>
     </row>
     <row r="15" spans="2:56">
       <c r="D15" t="s">
@@ -3077,12 +3513,12 @@
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3102,7 +3538,7 @@
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3112,7 +3548,7 @@
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3122,7 +3558,7 @@
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3133,23 +3569,545 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="AQ12:AT12"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="AQ10:AR10"/>
+    <mergeCell ref="AV8:AY8"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AV12:AY12"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AX14:AY14"/>
     <mergeCell ref="BA8:BD8"/>
     <mergeCell ref="BA10:BB10"/>
     <mergeCell ref="BA12:BD12"/>
     <mergeCell ref="BA14:BB14"/>
     <mergeCell ref="BC14:BD14"/>
-    <mergeCell ref="AV8:AY8"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AV12:AY12"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AX14:AY14"/>
-    <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="AQ12:AT12"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="AQ10:AR10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AU22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AL25" sqref="AL25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" customWidth="1"/>
+    <col min="19" max="19" width="13.21875" customWidth="1"/>
+    <col min="22" max="22" width="18.21875" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="30" max="30" width="12.109375" customWidth="1"/>
+    <col min="32" max="32" width="11.88671875" customWidth="1"/>
+    <col min="34" max="37" width="12.33203125" customWidth="1"/>
+    <col min="38" max="38" width="12.77734375" customWidth="1"/>
+    <col min="39" max="41" width="10.88671875" customWidth="1"/>
+    <col min="42" max="42" width="15.21875" customWidth="1"/>
+    <col min="43" max="43" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:47">
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" t="s">
+        <v>248</v>
+      </c>
+      <c r="O2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>259</v>
+      </c>
+      <c r="U2" t="s">
+        <v>260</v>
+      </c>
+      <c r="V2" t="s">
+        <v>261</v>
+      </c>
+      <c r="W2" t="s">
+        <v>264</v>
+      </c>
+      <c r="X2" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="2:47">
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" t="s">
+        <v>231</v>
+      </c>
+      <c r="L3" t="s">
+        <v>235</v>
+      </c>
+      <c r="M3" t="s">
+        <v>236</v>
+      </c>
+      <c r="N3" t="s">
+        <v>237</v>
+      </c>
+      <c r="O3" t="s">
+        <v>240</v>
+      </c>
+      <c r="P3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>275</v>
+      </c>
+      <c r="R3" t="s">
+        <v>255</v>
+      </c>
+      <c r="S3" t="s">
+        <v>257</v>
+      </c>
+      <c r="T3" t="s">
+        <v>258</v>
+      </c>
+      <c r="W3" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>333</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>319</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="2:47">
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" t="s">
+        <v>232</v>
+      </c>
+      <c r="M4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O4" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>268</v>
+      </c>
+      <c r="R4" t="s">
+        <v>315</v>
+      </c>
+      <c r="W4" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>339</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>330</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="2:47">
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" t="s">
+        <v>238</v>
+      </c>
+      <c r="O5" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>269</v>
+      </c>
+      <c r="R5" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>337</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="2:47">
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" t="s">
+        <v>218</v>
+      </c>
+      <c r="O6" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="2:47">
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" t="s">
+        <v>219</v>
+      </c>
+      <c r="O7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="2:47">
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+      <c r="O8" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="2:47">
+      <c r="B9" t="s">
+        <v>206</v>
+      </c>
+      <c r="O9" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="2:47">
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="2:47">
+      <c r="B11" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="2:47">
+      <c r="B12" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="2:47">
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:47">
+      <c r="B14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="2:47">
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="2:47">
+      <c r="B16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/otziv.xlsx
+++ b/otziv.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="340">
   <si>
     <t>id</t>
   </si>
@@ -1702,15 +1702,9 @@
     <t>автохимия</t>
   </si>
   <si>
-    <t>ТО и диагностика</t>
-  </si>
-  <si>
     <t>Автосервис</t>
   </si>
   <si>
-    <t>кузовные работы</t>
-  </si>
-  <si>
     <t>покраска</t>
   </si>
   <si>
@@ -1732,18 +1726,12 @@
     <t>авторазборка</t>
   </si>
   <si>
-    <t>Бухгалтерия</t>
-  </si>
-  <si>
     <t>автостекло</t>
   </si>
   <si>
     <t>Автошкола</t>
   </si>
   <si>
-    <t xml:space="preserve">категория </t>
-  </si>
-  <si>
     <t>Бани, сануы</t>
   </si>
   <si>
@@ -1762,21 +1750,9 @@
     <t>Барбершоп</t>
   </si>
   <si>
-    <t>Бетон</t>
-  </si>
-  <si>
-    <t>барбешоп</t>
-  </si>
-  <si>
     <t>бетон</t>
   </si>
   <si>
-    <t>бухгалтерия</t>
-  </si>
-  <si>
-    <t>Больница</t>
-  </si>
-  <si>
     <t>автомасло</t>
   </si>
   <si>
@@ -1789,36 +1765,12 @@
     <t>чип тюнинг</t>
   </si>
   <si>
-    <t>Ветеринар</t>
-  </si>
-  <si>
-    <t>Велосипеды</t>
-  </si>
-  <si>
     <t>ремонт</t>
   </si>
   <si>
     <t>прокат</t>
   </si>
   <si>
-    <t>ветеринар</t>
-  </si>
-  <si>
-    <t>Вскрытие замков</t>
-  </si>
-  <si>
-    <t>Ворота</t>
-  </si>
-  <si>
-    <t>Визажист</t>
-  </si>
-  <si>
-    <t>гаражные</t>
-  </si>
-  <si>
-    <t>заборные</t>
-  </si>
-  <si>
     <t>Гостиницы</t>
   </si>
   <si>
@@ -1873,9 +1825,6 @@
     <t>Дезинфекция</t>
   </si>
   <si>
-    <t>Двери</t>
-  </si>
-  <si>
     <t>д</t>
   </si>
   <si>
@@ -2026,9 +1975,6 @@
     <t>мужская</t>
   </si>
   <si>
-    <t>общая</t>
-  </si>
-  <si>
     <t>Медицина</t>
   </si>
   <si>
@@ -2132,6 +2078,45 @@
   </si>
   <si>
     <t>ф</t>
+  </si>
+  <si>
+    <t>Каско</t>
+  </si>
+  <si>
+    <t>техосмотр</t>
+  </si>
+  <si>
+    <t>Авто услуги</t>
+  </si>
+  <si>
+    <t>кузов</t>
+  </si>
+  <si>
+    <t>доска</t>
+  </si>
+  <si>
+    <t>Животные</t>
+  </si>
+  <si>
+    <t>Зоомагазин</t>
+  </si>
+  <si>
+    <t>Дрессировка</t>
+  </si>
+  <si>
+    <t>высткрытие хамков</t>
+  </si>
+  <si>
+    <t>Бухгалтер</t>
+  </si>
+  <si>
+    <t>Клиника</t>
+  </si>
+  <si>
+    <t>ворота</t>
+  </si>
+  <si>
+    <t>ВелоМото</t>
   </si>
 </sst>
 </file>
@@ -3569,21 +3554,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="BA8:BD8"/>
+    <mergeCell ref="BA10:BB10"/>
+    <mergeCell ref="BA12:BD12"/>
+    <mergeCell ref="BA14:BB14"/>
+    <mergeCell ref="BC14:BD14"/>
+    <mergeCell ref="AV8:AY8"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AV12:AY12"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AX14:AY14"/>
     <mergeCell ref="AQ8:AT8"/>
     <mergeCell ref="AQ12:AT12"/>
     <mergeCell ref="AQ14:AR14"/>
     <mergeCell ref="AS14:AT14"/>
     <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AV8:AY8"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AV12:AY12"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AX14:AY14"/>
-    <mergeCell ref="BA8:BD8"/>
-    <mergeCell ref="BA10:BB10"/>
-    <mergeCell ref="BA12:BD12"/>
-    <mergeCell ref="BA14:BB14"/>
-    <mergeCell ref="BC14:BD14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3592,522 +3577,488 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AU22"/>
+  <dimension ref="C2:AP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AL25" sqref="AL25"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" customWidth="1"/>
-    <col min="19" max="19" width="13.21875" customWidth="1"/>
-    <col min="22" max="22" width="18.21875" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" customWidth="1"/>
-    <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="30" max="30" width="12.109375" customWidth="1"/>
-    <col min="32" max="32" width="11.88671875" customWidth="1"/>
-    <col min="34" max="37" width="12.33203125" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" customWidth="1"/>
-    <col min="39" max="41" width="10.88671875" customWidth="1"/>
-    <col min="42" max="42" width="15.21875" customWidth="1"/>
-    <col min="43" max="43" width="11.33203125" customWidth="1"/>
+    <col min="3" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" customWidth="1"/>
+    <col min="16" max="16" width="18.21875" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" customWidth="1"/>
+    <col min="19" max="20" width="14" customWidth="1"/>
+    <col min="25" max="25" width="12.109375" customWidth="1"/>
+    <col min="27" max="27" width="11.88671875" customWidth="1"/>
+    <col min="29" max="32" width="12.33203125" customWidth="1"/>
+    <col min="33" max="33" width="12.77734375" customWidth="1"/>
+    <col min="34" max="36" width="10.88671875" customWidth="1"/>
+    <col min="37" max="37" width="15.21875" customWidth="1"/>
+    <col min="38" max="38" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:47">
-      <c r="B2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="3:42">
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O2" t="s">
+        <v>243</v>
+      </c>
+      <c r="P2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q2" t="s">
         <v>247</v>
       </c>
-      <c r="J2" t="s">
+      <c r="R2" t="s">
         <v>248</v>
       </c>
-      <c r="O2" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>259</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>260</v>
       </c>
-      <c r="V2" t="s">
-        <v>261</v>
-      </c>
       <c r="W2" t="s">
-        <v>264</v>
-      </c>
-      <c r="X2" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AA2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AB2" t="s">
         <v>289</v>
       </c>
+      <c r="AD2" t="s">
+        <v>295</v>
+      </c>
       <c r="AF2" t="s">
+        <v>308</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>325</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="3:42">
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" t="s">
+        <v>339</v>
+      </c>
+      <c r="J3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M3" t="s">
+        <v>241</v>
+      </c>
+      <c r="P3" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>249</v>
+      </c>
+      <c r="S3" t="s">
+        <v>262</v>
+      </c>
+      <c r="T3" t="s">
+        <v>337</v>
+      </c>
+      <c r="U3" t="s">
+        <v>261</v>
+      </c>
+      <c r="V3" t="s">
+        <v>270</v>
+      </c>
+      <c r="W3" t="s">
+        <v>273</v>
+      </c>
+      <c r="X3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>311</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="3:42">
+      <c r="C4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" t="s">
+        <v>251</v>
+      </c>
+      <c r="P4" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>250</v>
+      </c>
+      <c r="S4" t="s">
+        <v>263</v>
+      </c>
+      <c r="U4" t="s">
+        <v>271</v>
+      </c>
+      <c r="W4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA4" t="s">
         <v>303</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AB4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH4" t="s">
         <v>306</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI4" t="s">
+        <v>312</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="3:42">
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" t="s">
+        <v>252</v>
+      </c>
+      <c r="P5" t="s">
+        <v>333</v>
+      </c>
+      <c r="S5" t="s">
+        <v>264</v>
+      </c>
+      <c r="W5" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>335</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AI5" t="s">
         <v>313</v>
       </c>
-      <c r="AK2" t="s">
-        <v>326</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>327</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>340</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>343</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="2:47">
-      <c r="B3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="AM5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="3:42">
+      <c r="C6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" t="s">
+        <v>253</v>
+      </c>
+      <c r="P6" t="s">
+        <v>334</v>
+      </c>
+      <c r="S6" t="s">
+        <v>265</v>
+      </c>
+      <c r="W6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="3:42">
+      <c r="C7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7" t="s">
         <v>215</v>
       </c>
-      <c r="F3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="J7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K7" t="s">
+        <v>254</v>
+      </c>
+      <c r="S7" t="s">
+        <v>266</v>
+      </c>
+      <c r="W7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="3:42">
+      <c r="C8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" t="s">
+        <v>281</v>
+      </c>
+      <c r="J8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" t="s">
+        <v>255</v>
+      </c>
+      <c r="S8" t="s">
+        <v>267</v>
+      </c>
+      <c r="W8" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="3:42">
+      <c r="C9" t="s">
         <v>221</v>
       </c>
-      <c r="H3" t="s">
-        <v>211</v>
-      </c>
-      <c r="I3" t="s">
-        <v>225</v>
-      </c>
-      <c r="J3" t="s">
-        <v>230</v>
-      </c>
-      <c r="K3" t="s">
-        <v>231</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="D9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J9" t="s">
         <v>235</v>
       </c>
-      <c r="M3" t="s">
-        <v>236</v>
-      </c>
-      <c r="N3" t="s">
-        <v>237</v>
-      </c>
-      <c r="O3" t="s">
-        <v>240</v>
-      </c>
-      <c r="P3" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>275</v>
-      </c>
-      <c r="R3" t="s">
-        <v>255</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="K9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="3:42">
+      <c r="C10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" t="s">
         <v>257</v>
       </c>
-      <c r="T3" t="s">
-        <v>258</v>
-      </c>
-      <c r="W3" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>310</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>320</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>263</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>314</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>341</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>335</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>334</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>323</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>333</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>328</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>319</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="2:47">
-      <c r="B4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="S10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="3:42">
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" t="s">
+        <v>239</v>
+      </c>
+      <c r="S11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="3:42">
+      <c r="C12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K12" t="s">
+        <v>297</v>
+      </c>
+      <c r="S12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="3:42">
+      <c r="C13" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" t="s">
+        <v>298</v>
+      </c>
+      <c r="S13" t="s">
         <v>216</v>
-      </c>
-      <c r="F4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J4" t="s">
-        <v>234</v>
-      </c>
-      <c r="K4" t="s">
-        <v>232</v>
-      </c>
-      <c r="M4" t="s">
-        <v>239</v>
-      </c>
-      <c r="O4" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>268</v>
-      </c>
-      <c r="R4" t="s">
-        <v>315</v>
-      </c>
-      <c r="W4" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>291</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>311</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>321</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>307</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>309</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>339</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>342</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>336</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>256</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>324</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>330</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="2:47">
-      <c r="B5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" t="s">
-        <v>217</v>
-      </c>
-      <c r="K5" t="s">
-        <v>233</v>
-      </c>
-      <c r="M5" t="s">
-        <v>238</v>
-      </c>
-      <c r="O5" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>269</v>
-      </c>
-      <c r="R5" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>293</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>337</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>292</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="6" spans="2:47">
-      <c r="B6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" t="s">
-        <v>218</v>
-      </c>
-      <c r="O6" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>304</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>295</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="2:47">
-      <c r="B7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" t="s">
-        <v>219</v>
-      </c>
-      <c r="O7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>299</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="8" spans="2:47">
-      <c r="B8" t="s">
-        <v>205</v>
-      </c>
-      <c r="O8" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>300</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" spans="2:47">
-      <c r="B9" t="s">
-        <v>206</v>
-      </c>
-      <c r="O9" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="2:47">
-      <c r="B10" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="2:47">
-      <c r="B11" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="12" spans="2:47">
-      <c r="B12" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="2:47">
-      <c r="B13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="2:47">
-      <c r="B14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="2:47">
-      <c r="B15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="2:47">
-      <c r="B16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>